--- a/iherb_추천시스템/iherb_mctoil-filtered.xlsx
+++ b/iherb_추천시스템/iherb_mctoil-filtered.xlsx
@@ -34,22 +34,22 @@
     <t>66202</t>
   </si>
   <si>
+    <t>71107</t>
+  </si>
+  <si>
+    <t>72853</t>
+  </si>
+  <si>
     <t>13376</t>
   </si>
   <si>
-    <t>72853</t>
-  </si>
-  <si>
     <t>13585</t>
   </si>
   <si>
-    <t>71107</t>
-  </si>
-  <si>
     <t>68705</t>
   </si>
   <si>
-    <t>90177</t>
+    <t>84966</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/california-gold-nutrition-sports-organic-mct-oil-32-fl-oz-946-ml/99739</t>
@@ -58,16 +58,16 @@
     <t>https://kr.iherb.com/r/nature-s-way-organic-mct-oil-16-fl-oz-480-ml/66202</t>
   </si>
   <si>
+    <t>https://kr.iherb.com/r/sports-research-mct-oil-unflavored-32-fl-oz-946-ml/71107</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-unflavored-16-fl-oz-473-ml/72853</t>
+  </si>
+  <si>
     <t>https://kr.iherb.com/r/now-foods-caprylic-acid-600-mg-100-softgels/13376</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-unflavored-16-fl-oz-473-ml/72853</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/r/now-foods-sports-mct-oil-32-fl-oz-946-ml/13585</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/r/sports-research-mct-oil-unflavored-32-fl-oz-946-ml/71107</t>
   </si>
   <si>
     <t>https://kr.iherb.com/r/jarrow-formulas-mct-oil-unflavored-20-fl-oz-591-ml/68705</t>
@@ -475,7 +475,7 @@
         <v>4.8</v>
       </c>
       <c r="D2">
-        <v>5929</v>
+        <v>5960</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -492,7 +492,7 @@
         <v>4.7</v>
       </c>
       <c r="D3">
-        <v>6427</v>
+        <v>6443</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -500,16 +500,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D4">
-        <v>3587</v>
+        <v>2213</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -526,7 +526,7 @@
         <v>4.6</v>
       </c>
       <c r="D5">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -540,10 +540,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D6">
-        <v>706</v>
+        <v>3598</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>4.7</v>
       </c>
       <c r="D7">
-        <v>2208</v>
+        <v>708</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -577,7 +577,7 @@
         <v>4.6</v>
       </c>
       <c r="D8">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -594,7 +594,7 @@
         <v>4.7</v>
       </c>
       <c r="D9">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
